--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vtn-Itgb8.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vtn-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Itgb8</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +528,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H2">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I2">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J2">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.41258458515025</v>
+        <v>0.178057</v>
       </c>
       <c r="N2">
-        <v>2.41258458515025</v>
+        <v>0.534171</v>
       </c>
       <c r="O2">
-        <v>0.2081504293220339</v>
+        <v>0.01072706596418309</v>
       </c>
       <c r="P2">
-        <v>0.2081504293220339</v>
+        <v>0.01486309420510698</v>
       </c>
       <c r="Q2">
-        <v>13.62129212050284</v>
+        <v>1.104233186899333</v>
       </c>
       <c r="R2">
-        <v>13.62129212050284</v>
+        <v>9.938098682093997</v>
       </c>
       <c r="S2">
-        <v>0.01232979426987648</v>
+        <v>0.0005601127333984909</v>
       </c>
       <c r="T2">
-        <v>0.01232979426987648</v>
+        <v>0.00110079531796089</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +590,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H3">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I3">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J3">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.177997250343781</v>
+        <v>2.509764</v>
       </c>
       <c r="N3">
-        <v>9.177997250343781</v>
+        <v>7.529292</v>
       </c>
       <c r="O3">
-        <v>0.791849570677966</v>
+        <v>0.1512010422647355</v>
       </c>
       <c r="P3">
-        <v>0.791849570677966</v>
+        <v>0.2094995353430986</v>
       </c>
       <c r="Q3">
-        <v>51.81836209913394</v>
+        <v>15.564480475832</v>
       </c>
       <c r="R3">
-        <v>51.81836209913394</v>
+        <v>140.080324282488</v>
       </c>
       <c r="S3">
-        <v>0.04690522297239305</v>
+        <v>0.007894948102153413</v>
       </c>
       <c r="T3">
-        <v>0.04690522297239305</v>
+        <v>0.01551602273646526</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.62253671382392</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H4">
-        <v>6.62253671382392</v>
+        <v>18.604714</v>
       </c>
       <c r="I4">
-        <v>0.0694811720205131</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J4">
-        <v>0.0694811720205131</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.41258458515025</v>
+        <v>0.05389233333333333</v>
       </c>
       <c r="N4">
-        <v>2.41258458515025</v>
+        <v>0.161677</v>
       </c>
       <c r="O4">
-        <v>0.2081504293220339</v>
+        <v>0.003246750280137314</v>
       </c>
       <c r="P4">
-        <v>0.2081504293220339</v>
+        <v>0.004498597793214309</v>
       </c>
       <c r="Q4">
-        <v>15.97742999036318</v>
+        <v>0.3342171494864444</v>
       </c>
       <c r="R4">
-        <v>15.97742999036318</v>
+        <v>3.007954345377999</v>
       </c>
       <c r="S4">
-        <v>0.01446253578586789</v>
+        <v>0.0001695287583894817</v>
       </c>
       <c r="T4">
-        <v>0.01446253578586789</v>
+        <v>0.0003331766131481543</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,57 +717,57 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.62253671382392</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H5">
-        <v>6.62253671382392</v>
+        <v>18.604714</v>
       </c>
       <c r="I5">
-        <v>0.0694811720205131</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J5">
-        <v>0.0694811720205131</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.177997250343781</v>
+        <v>13.8571405</v>
       </c>
       <c r="N5">
-        <v>9.177997250343781</v>
+        <v>27.714281</v>
       </c>
       <c r="O5">
-        <v>0.791849570677966</v>
+        <v>0.8348251414909441</v>
       </c>
       <c r="P5">
-        <v>0.791849570677966</v>
+        <v>0.7711387726585802</v>
       </c>
       <c r="Q5">
-        <v>60.78162374977668</v>
+        <v>85.93604528677233</v>
       </c>
       <c r="R5">
-        <v>60.78162374977668</v>
+        <v>515.6162717206339</v>
       </c>
       <c r="S5">
-        <v>0.0550186362346452</v>
+        <v>0.04359031569970252</v>
       </c>
       <c r="T5">
-        <v>0.0550186362346452</v>
+        <v>0.05711233063092614</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +776,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>83.0456490150182</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H6">
-        <v>83.0456490150182</v>
+        <v>22.384924</v>
       </c>
       <c r="I6">
-        <v>0.8712838107372173</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J6">
-        <v>0.8712838107372173</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.41258458515025</v>
+        <v>0.178057</v>
       </c>
       <c r="N6">
-        <v>2.41258458515025</v>
+        <v>0.534171</v>
       </c>
       <c r="O6">
-        <v>0.2081504293220339</v>
+        <v>0.01072706596418309</v>
       </c>
       <c r="P6">
-        <v>0.2081504293220339</v>
+        <v>0.01486309420510698</v>
       </c>
       <c r="Q6">
-        <v>200.3546526774309</v>
+        <v>1.328597470889333</v>
       </c>
       <c r="R6">
-        <v>200.3546526774309</v>
+        <v>11.957377238004</v>
       </c>
       <c r="S6">
-        <v>0.1813580992662895</v>
+        <v>0.000673919575896597</v>
       </c>
       <c r="T6">
-        <v>0.1813580992662895</v>
+        <v>0.001324461076483645</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,55 +838,427 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>7.461641333333333</v>
+      </c>
+      <c r="H7">
+        <v>22.384924</v>
+      </c>
+      <c r="I7">
+        <v>0.06282422221945559</v>
+      </c>
+      <c r="J7">
+        <v>0.0891107233935555</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.509764</v>
+      </c>
+      <c r="N7">
+        <v>7.529292</v>
+      </c>
+      <c r="O7">
+        <v>0.1512010422647355</v>
+      </c>
+      <c r="P7">
+        <v>0.2094995353430986</v>
+      </c>
+      <c r="Q7">
+        <v>18.726958799312</v>
+      </c>
+      <c r="R7">
+        <v>168.542629193808</v>
+      </c>
+      <c r="S7">
+        <v>0.00949908787905304</v>
+      </c>
+      <c r="T7">
+        <v>0.01866865514503727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7.461641333333333</v>
+      </c>
+      <c r="H8">
+        <v>22.384924</v>
+      </c>
+      <c r="I8">
+        <v>0.06282422221945559</v>
+      </c>
+      <c r="J8">
+        <v>0.0891107233935555</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.05389233333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.161677</v>
+      </c>
+      <c r="O8">
+        <v>0.003246750280137314</v>
+      </c>
+      <c r="P8">
+        <v>0.004498597793214309</v>
+      </c>
+      <c r="Q8">
+        <v>0.4021252619497777</v>
+      </c>
+      <c r="R8">
+        <v>3.619127357547999</v>
+      </c>
+      <c r="S8">
+        <v>0.0002039745610904263</v>
+      </c>
+      <c r="T8">
+        <v>0.0004008733036099795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>83.0456490150182</v>
-      </c>
-      <c r="H7">
-        <v>83.0456490150182</v>
-      </c>
-      <c r="I7">
-        <v>0.8712838107372173</v>
-      </c>
-      <c r="J7">
-        <v>0.8712838107372173</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>9.177997250343781</v>
-      </c>
-      <c r="N7">
-        <v>9.177997250343781</v>
-      </c>
-      <c r="O7">
-        <v>0.791849570677966</v>
-      </c>
-      <c r="P7">
-        <v>0.791849570677966</v>
-      </c>
-      <c r="Q7">
-        <v>762.1927383128517</v>
-      </c>
-      <c r="R7">
-        <v>762.1927383128517</v>
-      </c>
-      <c r="S7">
-        <v>0.6899257114709277</v>
-      </c>
-      <c r="T7">
-        <v>0.6899257114709277</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7.461641333333333</v>
+      </c>
+      <c r="H9">
+        <v>22.384924</v>
+      </c>
+      <c r="I9">
+        <v>0.06282422221945559</v>
+      </c>
+      <c r="J9">
+        <v>0.0891107233935555</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>13.8571405</v>
+      </c>
+      <c r="N9">
+        <v>27.714281</v>
+      </c>
+      <c r="O9">
+        <v>0.8348251414909441</v>
+      </c>
+      <c r="P9">
+        <v>0.7711387726585802</v>
+      </c>
+      <c r="Q9">
+        <v>103.3970123166073</v>
+      </c>
+      <c r="R9">
+        <v>620.382073899644</v>
+      </c>
+      <c r="S9">
+        <v>0.05244724020341553</v>
+      </c>
+      <c r="T9">
+        <v>0.06871673386842461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>105.106922</v>
+      </c>
+      <c r="H10">
+        <v>210.213844</v>
+      </c>
+      <c r="I10">
+        <v>0.8849608724869005</v>
+      </c>
+      <c r="J10">
+        <v>0.836826951307944</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.178057</v>
+      </c>
+      <c r="N10">
+        <v>0.534171</v>
+      </c>
+      <c r="O10">
+        <v>0.01072706596418309</v>
+      </c>
+      <c r="P10">
+        <v>0.01486309420510698</v>
+      </c>
+      <c r="Q10">
+        <v>18.715023210554</v>
+      </c>
+      <c r="R10">
+        <v>112.290139263324</v>
+      </c>
+      <c r="S10">
+        <v>0.009493033654887999</v>
+      </c>
+      <c r="T10">
+        <v>0.01243783781066244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>105.106922</v>
+      </c>
+      <c r="H11">
+        <v>210.213844</v>
+      </c>
+      <c r="I11">
+        <v>0.8849608724869005</v>
+      </c>
+      <c r="J11">
+        <v>0.836826951307944</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.509764</v>
+      </c>
+      <c r="N11">
+        <v>7.529292</v>
+      </c>
+      <c r="O11">
+        <v>0.1512010422647355</v>
+      </c>
+      <c r="P11">
+        <v>0.2094995353430986</v>
+      </c>
+      <c r="Q11">
+        <v>263.793568986408</v>
+      </c>
+      <c r="R11">
+        <v>1582.761413918448</v>
+      </c>
+      <c r="S11">
+        <v>0.133807006283529</v>
+      </c>
+      <c r="T11">
+        <v>0.1753148574615961</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>105.106922</v>
+      </c>
+      <c r="H12">
+        <v>210.213844</v>
+      </c>
+      <c r="I12">
+        <v>0.8849608724869005</v>
+      </c>
+      <c r="J12">
+        <v>0.836826951307944</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.05389233333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.161677</v>
+      </c>
+      <c r="O12">
+        <v>0.003246750280137314</v>
+      </c>
+      <c r="P12">
+        <v>0.004498597793214309</v>
+      </c>
+      <c r="Q12">
+        <v>5.664457276064666</v>
+      </c>
+      <c r="R12">
+        <v>33.98674365638799</v>
+      </c>
+      <c r="S12">
+        <v>0.002873246960657406</v>
+      </c>
+      <c r="T12">
+        <v>0.003764547876456175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>105.106922</v>
+      </c>
+      <c r="H13">
+        <v>210.213844</v>
+      </c>
+      <c r="I13">
+        <v>0.8849608724869005</v>
+      </c>
+      <c r="J13">
+        <v>0.836826951307944</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>13.8571405</v>
+      </c>
+      <c r="N13">
+        <v>27.714281</v>
+      </c>
+      <c r="O13">
+        <v>0.8348251414909441</v>
+      </c>
+      <c r="P13">
+        <v>0.7711387726585802</v>
+      </c>
+      <c r="Q13">
+        <v>1456.481385676541</v>
+      </c>
+      <c r="R13">
+        <v>5825.925542706163</v>
+      </c>
+      <c r="S13">
+        <v>0.7387875855878261</v>
+      </c>
+      <c r="T13">
+        <v>0.6453097081592294</v>
       </c>
     </row>
   </sheetData>
